--- a/wbs/wbs.xlsx
+++ b/wbs/wbs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>1주차</t>
   </si>
@@ -118,19 +118,28 @@
     <t>anchovy_train</t>
   </si>
   <si>
-    <t>초기화면</t>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>백엔드</t>
   </si>
   <si>
     <t>모델</t>
   </si>
   <si>
+    <t>카메라 연결</t>
+  </si>
+  <si>
+    <t>학습</t>
+  </si>
+  <si>
     <t xml:space="preserve">운동하기 </t>
   </si>
   <si>
     <t xml:space="preserve"> 마무리</t>
   </si>
   <si>
-    <t>유지 및 보수</t>
+    <t>유지 및 보수(+초기화면)</t>
   </si>
   <si>
     <t>최종 테스트</t>
@@ -177,7 +186,7 @@
       <name val="Helvetica Neue Medium"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +214,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -238,7 +253,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -290,6 +305,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -313,6 +337,7 @@
       <rgbColor rgb="ffd5d5d5"/>
       <rgbColor rgb="ffffe265"/>
       <rgbColor rgb="fffefffe"/>
+      <rgbColor rgb="ffffe265"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1374,7 +1399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BJ26"/>
+  <dimension ref="A1:BJ28"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2591,7 +2616,7 @@
       <c r="AG16" s="15"/>
       <c r="AH16" s="12"/>
       <c r="AI16" s="12"/>
-      <c r="AJ16" s="15"/>
+      <c r="AJ16" s="13"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -2659,7 +2684,7 @@
       <c r="AG17" s="15"/>
       <c r="AH17" s="12"/>
       <c r="AI17" s="12"/>
-      <c r="AJ17" s="15"/>
+      <c r="AJ17" s="13"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
@@ -2795,7 +2820,7 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
-      <c r="AJ19" s="15"/>
+      <c r="AJ19" s="17"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
@@ -2999,8 +3024,8 @@
       <c r="AG22" s="15"/>
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
-      <c r="AJ22" s="12"/>
-      <c r="AK22" s="15"/>
+      <c r="AJ22" s="13"/>
+      <c r="AK22" s="17"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
@@ -3028,13 +3053,13 @@
       <c r="BJ22" s="13"/>
     </row>
     <row r="23" ht="21" customHeight="1">
-      <c r="A23" s="10"/>
+      <c r="A23" s="13"/>
       <c r="B23" t="s" s="9">
         <v>36</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="11">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
@@ -3059,26 +3084,26 @@
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
       <c r="AH23" s="15"/>
       <c r="AI23" s="15"/>
-      <c r="AJ23" s="13"/>
-      <c r="AK23" s="12"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="12"/>
-      <c r="AN23" s="12"/>
-      <c r="AO23" s="12"/>
-      <c r="AP23" s="12"/>
+      <c r="AJ23" s="15"/>
+      <c r="AK23" s="15"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+      <c r="AN23" s="17"/>
+      <c r="AO23" s="15"/>
+      <c r="AP23" s="15"/>
       <c r="AQ23" s="14"/>
-      <c r="AR23" s="12"/>
-      <c r="AS23" s="12"/>
-      <c r="AT23" s="12"/>
-      <c r="AU23" s="12"/>
+      <c r="AR23" s="15"/>
+      <c r="AS23" s="15"/>
+      <c r="AT23" s="15"/>
+      <c r="AU23" s="15"/>
       <c r="AV23" s="14"/>
       <c r="AW23" s="13"/>
       <c r="AX23" s="13"/>
@@ -3095,14 +3120,16 @@
       <c r="BI23" s="13"/>
       <c r="BJ23" s="13"/>
     </row>
-    <row r="24" ht="21.5" customHeight="1">
-      <c r="A24" s="10"/>
+    <row r="24" ht="21" customHeight="1">
+      <c r="A24" s="13"/>
       <c r="B24" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" t="s" s="18">
+        <v>38</v>
+      </c>
       <c r="D24" s="11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -3135,18 +3162,18 @@
       <c r="AG24" s="15"/>
       <c r="AH24" s="15"/>
       <c r="AI24" s="15"/>
-      <c r="AJ24" s="15"/>
+      <c r="AJ24" s="13"/>
       <c r="AK24" s="15"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
-      <c r="AN24" s="15"/>
-      <c r="AO24" s="15"/>
-      <c r="AP24" s="15"/>
+      <c r="AN24" s="17"/>
+      <c r="AO24" s="17"/>
+      <c r="AP24" s="17"/>
       <c r="AQ24" s="14"/>
-      <c r="AR24" s="12"/>
-      <c r="AS24" s="12"/>
-      <c r="AT24" s="12"/>
-      <c r="AU24" s="12"/>
+      <c r="AR24" s="15"/>
+      <c r="AS24" s="15"/>
+      <c r="AT24" s="15"/>
+      <c r="AU24" s="15"/>
       <c r="AV24" s="14"/>
       <c r="AW24" s="13"/>
       <c r="AX24" s="13"/>
@@ -3163,16 +3190,14 @@
       <c r="BI24" s="13"/>
       <c r="BJ24" s="13"/>
     </row>
-    <row r="25" ht="21.5" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="B25" t="s" s="9">
+    <row r="25" ht="21" customHeight="1">
+      <c r="A25" s="10"/>
+      <c r="B25" s="13"/>
+      <c r="C25" t="s" s="19">
         <v>39</v>
       </c>
-      <c r="C25" s="10"/>
       <c r="D25" s="11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3197,39 +3222,39 @@
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
-      <c r="AB25" s="15"/>
-      <c r="AC25" s="15"/>
-      <c r="AD25" s="15"/>
-      <c r="AE25" s="15"/>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
       <c r="AF25" s="15"/>
       <c r="AG25" s="15"/>
       <c r="AH25" s="15"/>
       <c r="AI25" s="15"/>
-      <c r="AJ25" s="15"/>
+      <c r="AJ25" s="13"/>
       <c r="AK25" s="15"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
+      <c r="AN25" s="13"/>
+      <c r="AO25" s="13"/>
+      <c r="AP25" s="12"/>
       <c r="AQ25" s="14"/>
-      <c r="AR25" s="15"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
+      <c r="AR25" s="12"/>
+      <c r="AS25" s="12"/>
+      <c r="AT25" s="12"/>
+      <c r="AU25" s="12"/>
       <c r="AV25" s="14"/>
       <c r="AW25" s="12"/>
       <c r="AX25" s="12"/>
       <c r="AY25" s="12"/>
-      <c r="AZ25" s="12"/>
-      <c r="BA25" s="12"/>
-      <c r="BB25" s="12"/>
-      <c r="BC25" s="12"/>
-      <c r="BD25" s="15"/>
-      <c r="BE25" s="15"/>
-      <c r="BF25" s="15"/>
-      <c r="BG25" s="15"/>
-      <c r="BH25" s="15"/>
+      <c r="AZ25" s="13"/>
+      <c r="BA25" s="13"/>
+      <c r="BB25" s="13"/>
+      <c r="BC25" s="13"/>
+      <c r="BD25" s="13"/>
+      <c r="BE25" s="13"/>
+      <c r="BF25" s="13"/>
+      <c r="BG25" s="13"/>
+      <c r="BH25" s="13"/>
       <c r="BI25" s="13"/>
       <c r="BJ25" s="13"/>
     </row>
@@ -3239,7 +3264,9 @@
         <v>40</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="13"/>
@@ -3267,40 +3294,176 @@
       <c r="AC26" s="13"/>
       <c r="AD26" s="13"/>
       <c r="AE26" s="13"/>
-      <c r="AF26" s="13"/>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13"/>
-      <c r="AK26" s="13"/>
-      <c r="AL26" s="13"/>
-      <c r="AM26" s="13"/>
-      <c r="AN26" s="13"/>
-      <c r="AO26" s="13"/>
-      <c r="AP26" s="13"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="15"/>
+      <c r="AJ26" s="15"/>
+      <c r="AK26" s="15"/>
+      <c r="AL26" s="15"/>
+      <c r="AM26" s="15"/>
+      <c r="AN26" s="15"/>
+      <c r="AO26" s="15"/>
+      <c r="AP26" s="15"/>
       <c r="AQ26" s="14"/>
-      <c r="AR26" s="13"/>
-      <c r="AS26" s="13"/>
-      <c r="AT26" s="13"/>
-      <c r="AU26" s="13"/>
+      <c r="AR26" s="15"/>
+      <c r="AS26" s="15"/>
+      <c r="AT26" s="15"/>
+      <c r="AU26" s="12"/>
       <c r="AV26" s="14"/>
-      <c r="AW26" s="13"/>
-      <c r="AX26" s="13"/>
-      <c r="AY26" s="13"/>
+      <c r="AW26" s="12"/>
+      <c r="AX26" s="12"/>
+      <c r="AY26" s="12"/>
       <c r="AZ26" s="13"/>
       <c r="BA26" s="13"/>
       <c r="BB26" s="13"/>
       <c r="BC26" s="13"/>
-      <c r="BD26" s="12"/>
-      <c r="BE26" s="12"/>
-      <c r="BF26" s="12"/>
-      <c r="BG26" s="12"/>
-      <c r="BH26" s="12"/>
-      <c r="BI26" s="12"/>
-      <c r="BJ26" s="12"/>
+      <c r="BD26" s="13"/>
+      <c r="BE26" s="13"/>
+      <c r="BF26" s="13"/>
+      <c r="BG26" s="13"/>
+      <c r="BH26" s="13"/>
+      <c r="BI26" s="13"/>
+      <c r="BJ26" s="13"/>
+    </row>
+    <row r="27" ht="21.5" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s" s="9">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11">
+        <v>4</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="15"/>
+      <c r="AD27" s="15"/>
+      <c r="AE27" s="15"/>
+      <c r="AF27" s="15"/>
+      <c r="AG27" s="15"/>
+      <c r="AH27" s="15"/>
+      <c r="AI27" s="15"/>
+      <c r="AJ27" s="15"/>
+      <c r="AK27" s="15"/>
+      <c r="AL27" s="15"/>
+      <c r="AM27" s="15"/>
+      <c r="AN27" s="15"/>
+      <c r="AO27" s="15"/>
+      <c r="AP27" s="15"/>
+      <c r="AQ27" s="14"/>
+      <c r="AR27" s="15"/>
+      <c r="AS27" s="15"/>
+      <c r="AT27" s="15"/>
+      <c r="AU27" s="15"/>
+      <c r="AV27" s="14"/>
+      <c r="AW27" s="13"/>
+      <c r="AX27" s="13"/>
+      <c r="AY27" s="13"/>
+      <c r="AZ27" s="12"/>
+      <c r="BA27" s="12"/>
+      <c r="BB27" s="12"/>
+      <c r="BC27" s="12"/>
+      <c r="BD27" s="15"/>
+      <c r="BE27" s="15"/>
+      <c r="BF27" s="15"/>
+      <c r="BG27" s="15"/>
+      <c r="BH27" s="15"/>
+      <c r="BI27" s="13"/>
+      <c r="BJ27" s="13"/>
+    </row>
+    <row r="28" ht="21.5" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
+      <c r="AK28" s="13"/>
+      <c r="AL28" s="13"/>
+      <c r="AM28" s="13"/>
+      <c r="AN28" s="13"/>
+      <c r="AO28" s="13"/>
+      <c r="AP28" s="13"/>
+      <c r="AQ28" s="14"/>
+      <c r="AR28" s="13"/>
+      <c r="AS28" s="13"/>
+      <c r="AT28" s="13"/>
+      <c r="AU28" s="13"/>
+      <c r="AV28" s="14"/>
+      <c r="AW28" s="13"/>
+      <c r="AX28" s="13"/>
+      <c r="AY28" s="13"/>
+      <c r="AZ28" s="13"/>
+      <c r="BA28" s="13"/>
+      <c r="BB28" s="13"/>
+      <c r="BC28" s="13"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
     <mergeCell ref="AA1:AV1"/>
     <mergeCell ref="AW1:BJ1"/>
     <mergeCell ref="I2:M2"/>
@@ -3317,7 +3480,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E1:Z1"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:A10"/>
@@ -3329,13 +3492,14 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A11:A24"/>
-    <mergeCell ref="B13:B22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/wbs/wbs.xlsx
+++ b/wbs/wbs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>1주차</t>
   </si>
@@ -130,10 +130,16 @@
     <t>카메라 연결</t>
   </si>
   <si>
+    <t>모델 선정</t>
+  </si>
+  <si>
     <t>학습</t>
   </si>
   <si>
     <t xml:space="preserve">운동하기 </t>
+  </si>
+  <si>
+    <t>서버연결</t>
   </si>
   <si>
     <t xml:space="preserve"> 마무리</t>
@@ -1399,7 +1405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BJ28"/>
+  <dimension ref="A1:BJ30"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1691,7 +1697,7 @@
       <c r="AP3" s="7">
         <v>22</v>
       </c>
-      <c r="AQ3" s="8">
+      <c r="AQ3" s="7">
         <v>23</v>
       </c>
       <c r="AR3" s="7">
@@ -1801,7 +1807,7 @@
       <c r="AN4" s="13"/>
       <c r="AO4" s="13"/>
       <c r="AP4" s="13"/>
-      <c r="AQ4" s="14"/>
+      <c r="AQ4" s="13"/>
       <c r="AR4" s="13"/>
       <c r="AS4" s="13"/>
       <c r="AT4" s="13"/>
@@ -1869,7 +1875,7 @@
       <c r="AN5" s="13"/>
       <c r="AO5" s="13"/>
       <c r="AP5" s="13"/>
-      <c r="AQ5" s="14"/>
+      <c r="AQ5" s="13"/>
       <c r="AR5" s="13"/>
       <c r="AS5" s="13"/>
       <c r="AT5" s="13"/>
@@ -1939,7 +1945,7 @@
       <c r="AN6" s="13"/>
       <c r="AO6" s="13"/>
       <c r="AP6" s="13"/>
-      <c r="AQ6" s="14"/>
+      <c r="AQ6" s="13"/>
       <c r="AR6" s="13"/>
       <c r="AS6" s="13"/>
       <c r="AT6" s="13"/>
@@ -2007,7 +2013,7 @@
       <c r="AN7" s="13"/>
       <c r="AO7" s="13"/>
       <c r="AP7" s="13"/>
-      <c r="AQ7" s="14"/>
+      <c r="AQ7" s="13"/>
       <c r="AR7" s="13"/>
       <c r="AS7" s="13"/>
       <c r="AT7" s="13"/>
@@ -2075,7 +2081,7 @@
       <c r="AN8" s="13"/>
       <c r="AO8" s="13"/>
       <c r="AP8" s="13"/>
-      <c r="AQ8" s="14"/>
+      <c r="AQ8" s="13"/>
       <c r="AR8" s="13"/>
       <c r="AS8" s="13"/>
       <c r="AT8" s="13"/>
@@ -2143,7 +2149,7 @@
       <c r="AN9" s="13"/>
       <c r="AO9" s="13"/>
       <c r="AP9" s="13"/>
-      <c r="AQ9" s="14"/>
+      <c r="AQ9" s="13"/>
       <c r="AR9" s="13"/>
       <c r="AS9" s="13"/>
       <c r="AT9" s="13"/>
@@ -2211,7 +2217,7 @@
       <c r="AN10" s="13"/>
       <c r="AO10" s="13"/>
       <c r="AP10" s="13"/>
-      <c r="AQ10" s="14"/>
+      <c r="AQ10" s="13"/>
       <c r="AR10" s="13"/>
       <c r="AS10" s="13"/>
       <c r="AT10" s="13"/>
@@ -2281,7 +2287,7 @@
       <c r="AN11" s="13"/>
       <c r="AO11" s="13"/>
       <c r="AP11" s="13"/>
-      <c r="AQ11" s="14"/>
+      <c r="AQ11" s="13"/>
       <c r="AR11" s="13"/>
       <c r="AS11" s="13"/>
       <c r="AT11" s="13"/>
@@ -2349,7 +2355,7 @@
       <c r="AN12" s="13"/>
       <c r="AO12" s="13"/>
       <c r="AP12" s="13"/>
-      <c r="AQ12" s="14"/>
+      <c r="AQ12" s="13"/>
       <c r="AR12" s="13"/>
       <c r="AS12" s="13"/>
       <c r="AT12" s="13"/>
@@ -2419,7 +2425,7 @@
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
       <c r="AP13" s="15"/>
-      <c r="AQ13" s="14"/>
+      <c r="AQ13" s="13"/>
       <c r="AR13" s="13"/>
       <c r="AS13" s="13"/>
       <c r="AT13" s="13"/>
@@ -2487,7 +2493,7 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
       <c r="AP14" s="15"/>
-      <c r="AQ14" s="14"/>
+      <c r="AQ14" s="13"/>
       <c r="AR14" s="13"/>
       <c r="AS14" s="13"/>
       <c r="AT14" s="13"/>
@@ -2555,7 +2561,7 @@
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
       <c r="AP15" s="15"/>
-      <c r="AQ15" s="14"/>
+      <c r="AQ15" s="13"/>
       <c r="AR15" s="13"/>
       <c r="AS15" s="13"/>
       <c r="AT15" s="13"/>
@@ -2623,7 +2629,7 @@
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
       <c r="AP16" s="15"/>
-      <c r="AQ16" s="14"/>
+      <c r="AQ16" s="13"/>
       <c r="AR16" s="13"/>
       <c r="AS16" s="13"/>
       <c r="AT16" s="13"/>
@@ -2691,7 +2697,7 @@
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
       <c r="AP17" s="15"/>
-      <c r="AQ17" s="14"/>
+      <c r="AQ17" s="13"/>
       <c r="AR17" s="13"/>
       <c r="AS17" s="13"/>
       <c r="AT17" s="13"/>
@@ -2759,7 +2765,7 @@
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
       <c r="AP18" s="15"/>
-      <c r="AQ18" s="14"/>
+      <c r="AQ18" s="13"/>
       <c r="AR18" s="13"/>
       <c r="AS18" s="13"/>
       <c r="AT18" s="13"/>
@@ -2820,14 +2826,14 @@
       <c r="AG19" s="15"/>
       <c r="AH19" s="12"/>
       <c r="AI19" s="12"/>
-      <c r="AJ19" s="17"/>
+      <c r="AJ19" s="12"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
       <c r="AP19" s="15"/>
-      <c r="AQ19" s="14"/>
+      <c r="AQ19" s="13"/>
       <c r="AR19" s="13"/>
       <c r="AS19" s="13"/>
       <c r="AT19" s="13"/>
@@ -2895,7 +2901,7 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
       <c r="AP20" s="15"/>
-      <c r="AQ20" s="14"/>
+      <c r="AQ20" s="13"/>
       <c r="AR20" s="13"/>
       <c r="AS20" s="13"/>
       <c r="AT20" s="13"/>
@@ -2963,7 +2969,7 @@
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
       <c r="AP21" s="15"/>
-      <c r="AQ21" s="14"/>
+      <c r="AQ21" s="13"/>
       <c r="AR21" s="13"/>
       <c r="AS21" s="13"/>
       <c r="AT21" s="13"/>
@@ -3025,13 +3031,13 @@
       <c r="AH22" s="15"/>
       <c r="AI22" s="15"/>
       <c r="AJ22" s="13"/>
-      <c r="AK22" s="17"/>
+      <c r="AK22" s="12"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
       <c r="AP22" s="15"/>
-      <c r="AQ22" s="14"/>
+      <c r="AQ22" s="13"/>
       <c r="AR22" s="15"/>
       <c r="AS22" s="15"/>
       <c r="AT22" s="15"/>
@@ -3097,9 +3103,9 @@
       <c r="AL23" s="17"/>
       <c r="AM23" s="17"/>
       <c r="AN23" s="17"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
-      <c r="AQ23" s="14"/>
+      <c r="AO23" s="17"/>
+      <c r="AP23" s="17"/>
+      <c r="AQ23" s="17"/>
       <c r="AR23" s="15"/>
       <c r="AS23" s="15"/>
       <c r="AT23" s="15"/>
@@ -3166,11 +3172,11 @@
       <c r="AK24" s="15"/>
       <c r="AL24" s="15"/>
       <c r="AM24" s="15"/>
-      <c r="AN24" s="17"/>
-      <c r="AO24" s="17"/>
-      <c r="AP24" s="17"/>
-      <c r="AQ24" s="14"/>
-      <c r="AR24" s="15"/>
+      <c r="AN24" s="13"/>
+      <c r="AO24" s="13"/>
+      <c r="AP24" s="13"/>
+      <c r="AQ24" s="17"/>
+      <c r="AR24" s="17"/>
       <c r="AS24" s="15"/>
       <c r="AT24" s="15"/>
       <c r="AU24" s="15"/>
@@ -3191,13 +3197,13 @@
       <c r="BJ24" s="13"/>
     </row>
     <row r="25" ht="21" customHeight="1">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" t="s" s="19">
         <v>39</v>
       </c>
       <c r="D25" s="11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
@@ -3236,16 +3242,16 @@
       <c r="AM25" s="15"/>
       <c r="AN25" s="13"/>
       <c r="AO25" s="13"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="14"/>
+      <c r="AP25" s="15"/>
+      <c r="AQ25" s="13"/>
       <c r="AR25" s="12"/>
       <c r="AS25" s="12"/>
-      <c r="AT25" s="12"/>
-      <c r="AU25" s="12"/>
+      <c r="AT25" s="15"/>
+      <c r="AU25" s="15"/>
       <c r="AV25" s="14"/>
-      <c r="AW25" s="12"/>
-      <c r="AX25" s="12"/>
-      <c r="AY25" s="12"/>
+      <c r="AW25" s="13"/>
+      <c r="AX25" s="13"/>
+      <c r="AY25" s="13"/>
       <c r="AZ25" s="13"/>
       <c r="BA25" s="13"/>
       <c r="BB25" s="13"/>
@@ -3258,14 +3264,14 @@
       <c r="BI25" s="13"/>
       <c r="BJ25" s="13"/>
     </row>
-    <row r="26" ht="21.5" customHeight="1">
+    <row r="26" ht="21" customHeight="1">
       <c r="A26" s="10"/>
-      <c r="B26" t="s" s="9">
+      <c r="B26" s="13"/>
+      <c r="C26" t="s" s="19">
         <v>40</v>
       </c>
-      <c r="C26" s="10"/>
       <c r="D26" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
@@ -3298,17 +3304,17 @@
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
       <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
+      <c r="AN26" s="13"/>
+      <c r="AO26" s="13"/>
       <c r="AP26" s="15"/>
-      <c r="AQ26" s="14"/>
+      <c r="AQ26" s="13"/>
       <c r="AR26" s="15"/>
       <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
+      <c r="AT26" s="12"/>
       <c r="AU26" s="12"/>
       <c r="AV26" s="14"/>
       <c r="AW26" s="12"/>
@@ -3327,11 +3333,9 @@
       <c r="BJ26" s="13"/>
     </row>
     <row r="27" ht="21.5" customHeight="1">
-      <c r="A27" t="s" s="9">
+      <c r="A27" s="10"/>
+      <c r="B27" t="s" s="9">
         <v>41</v>
-      </c>
-      <c r="B27" t="s" s="9">
-        <v>42</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="11">
@@ -3360,10 +3364,10 @@
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
       <c r="AA27" s="13"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
@@ -3375,34 +3379,36 @@
       <c r="AN27" s="15"/>
       <c r="AO27" s="15"/>
       <c r="AP27" s="15"/>
-      <c r="AQ27" s="14"/>
+      <c r="AQ27" s="13"/>
       <c r="AR27" s="15"/>
       <c r="AS27" s="15"/>
       <c r="AT27" s="15"/>
-      <c r="AU27" s="15"/>
+      <c r="AU27" s="12"/>
       <c r="AV27" s="14"/>
-      <c r="AW27" s="13"/>
-      <c r="AX27" s="13"/>
-      <c r="AY27" s="13"/>
-      <c r="AZ27" s="12"/>
-      <c r="BA27" s="12"/>
-      <c r="BB27" s="12"/>
-      <c r="BC27" s="12"/>
-      <c r="BD27" s="15"/>
-      <c r="BE27" s="15"/>
-      <c r="BF27" s="15"/>
-      <c r="BG27" s="15"/>
-      <c r="BH27" s="15"/>
+      <c r="AW27" s="12"/>
+      <c r="AX27" s="12"/>
+      <c r="AY27" s="12"/>
+      <c r="AZ27" s="13"/>
+      <c r="BA27" s="13"/>
+      <c r="BB27" s="13"/>
+      <c r="BC27" s="13"/>
+      <c r="BD27" s="13"/>
+      <c r="BE27" s="13"/>
+      <c r="BF27" s="13"/>
+      <c r="BG27" s="13"/>
+      <c r="BH27" s="13"/>
       <c r="BI27" s="13"/>
       <c r="BJ27" s="13"/>
     </row>
     <row r="28" ht="21.5" customHeight="1">
-      <c r="A28" s="10"/>
+      <c r="A28" s="9"/>
       <c r="B28" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="11">
+        <v>2</v>
+      </c>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -3430,40 +3436,176 @@
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-      <c r="AK28" s="13"/>
-      <c r="AL28" s="13"/>
-      <c r="AM28" s="13"/>
-      <c r="AN28" s="13"/>
-      <c r="AO28" s="13"/>
-      <c r="AP28" s="13"/>
-      <c r="AQ28" s="14"/>
-      <c r="AR28" s="13"/>
-      <c r="AS28" s="13"/>
-      <c r="AT28" s="13"/>
-      <c r="AU28" s="13"/>
+      <c r="AF28" s="15"/>
+      <c r="AG28" s="15"/>
+      <c r="AH28" s="15"/>
+      <c r="AI28" s="15"/>
+      <c r="AJ28" s="15"/>
+      <c r="AK28" s="15"/>
+      <c r="AL28" s="15"/>
+      <c r="AM28" s="15"/>
+      <c r="AN28" s="15"/>
+      <c r="AO28" s="15"/>
+      <c r="AP28" s="15"/>
+      <c r="AQ28" s="13"/>
+      <c r="AR28" s="15"/>
+      <c r="AS28" s="15"/>
+      <c r="AT28" s="15"/>
+      <c r="AU28" s="15"/>
       <c r="AV28" s="14"/>
       <c r="AW28" s="13"/>
-      <c r="AX28" s="13"/>
-      <c r="AY28" s="13"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
       <c r="AZ28" s="13"/>
       <c r="BA28" s="13"/>
       <c r="BB28" s="13"/>
       <c r="BC28" s="13"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
+      <c r="BD28" s="13"/>
+      <c r="BE28" s="13"/>
+      <c r="BF28" s="13"/>
+      <c r="BG28" s="13"/>
+      <c r="BH28" s="13"/>
+      <c r="BI28" s="13"/>
+      <c r="BJ28" s="13"/>
+    </row>
+    <row r="29" ht="21.5" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B29" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="15"/>
+      <c r="AD29" s="15"/>
+      <c r="AE29" s="15"/>
+      <c r="AF29" s="15"/>
+      <c r="AG29" s="15"/>
+      <c r="AH29" s="15"/>
+      <c r="AI29" s="15"/>
+      <c r="AJ29" s="15"/>
+      <c r="AK29" s="15"/>
+      <c r="AL29" s="15"/>
+      <c r="AM29" s="15"/>
+      <c r="AN29" s="15"/>
+      <c r="AO29" s="15"/>
+      <c r="AP29" s="15"/>
+      <c r="AQ29" s="13"/>
+      <c r="AR29" s="15"/>
+      <c r="AS29" s="15"/>
+      <c r="AT29" s="15"/>
+      <c r="AU29" s="15"/>
+      <c r="AV29" s="14"/>
+      <c r="AW29" s="13"/>
+      <c r="AX29" s="13"/>
+      <c r="AY29" s="13"/>
+      <c r="AZ29" s="12"/>
+      <c r="BA29" s="12"/>
+      <c r="BB29" s="12"/>
+      <c r="BC29" s="12"/>
+      <c r="BD29" s="15"/>
+      <c r="BE29" s="15"/>
+      <c r="BF29" s="15"/>
+      <c r="BG29" s="15"/>
+      <c r="BH29" s="15"/>
+      <c r="BI29" s="13"/>
+      <c r="BJ29" s="13"/>
+    </row>
+    <row r="30" ht="21.5" customHeight="1">
+      <c r="A30" s="10"/>
+      <c r="B30" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13"/>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13"/>
+      <c r="AI30" s="13"/>
+      <c r="AJ30" s="13"/>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="13"/>
+      <c r="AT30" s="13"/>
+      <c r="AU30" s="13"/>
+      <c r="AV30" s="14"/>
+      <c r="AW30" s="13"/>
+      <c r="AX30" s="13"/>
+      <c r="AY30" s="13"/>
+      <c r="AZ30" s="13"/>
+      <c r="BA30" s="13"/>
+      <c r="BB30" s="13"/>
+      <c r="BC30" s="13"/>
+      <c r="BD30" s="12"/>
+      <c r="BE30" s="12"/>
+      <c r="BF30" s="12"/>
+      <c r="BG30" s="12"/>
+      <c r="BH30" s="12"/>
+      <c r="BI30" s="12"/>
+      <c r="BJ30" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="37">
     <mergeCell ref="AA1:AV1"/>
     <mergeCell ref="AW1:BJ1"/>
     <mergeCell ref="I2:M2"/>
@@ -3480,7 +3622,7 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E1:Z1"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A6:A10"/>
@@ -3492,14 +3634,15 @@
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="A11:A27"/>
+    <mergeCell ref="B13:B22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="B13:B22"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
